--- a/results/[9_cold_winters]_#_inv_cost.xlsx
+++ b/results/[9_cold_winters]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5438.409379980163</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13868.5083630681</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7286.33314139565</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31113.977708736</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>4897.602148891324</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>7262.375938507258</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4076.683804611164</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9077.854925484444</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38668.68259872351</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>57990.58492007876</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>8321.538881516826</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>7021.211903140116</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5310.359013814369</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>14058.13149740678</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58157.14951550964</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85997.51828916262</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>15130.30412399452</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>11504.71832746226</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>741.276702963037</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2327.934439300461</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>612.1420905210745</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[9_cold_winters]_#_inv_cost.xlsx
+++ b/results/[9_cold_winters]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10486.30918715531</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7912.696128415612</v>
+        <v>2900.628494008129</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127905.571197864</v>
+        <v>290490.7128553893</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712661196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>199860.7402548</v>
+        <v>149420.986357725</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>183081.44584818</v>
+        <v>509988.6069102</v>
       </c>
       <c r="M2" t="n">
-        <v>61946.99311416</v>
+        <v>112287.0813999</v>
       </c>
       <c r="N2" t="n">
-        <v>58838.56616931506</v>
+        <v>71616.34392528806</v>
       </c>
       <c r="O2" t="n">
-        <v>35941.73324386463</v>
+        <v>66869.92067293868</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46428.50258840945</v>
+        <v>2297.730639432591</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>35125.66274683856</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>286082.9770908462</v>
+        <v>164480.3067901611</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>142025.3576243174</v>
+        <v>162514.5034018797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>767761.7551230596</v>
+        <v>92628.68888285091</v>
       </c>
       <c r="M2" t="n">
-        <v>188966.859266328</v>
+        <v>61433.01601085002</v>
       </c>
       <c r="N2" t="n">
-        <v>126466.8649881523</v>
+        <v>19245.54644840866</v>
       </c>
       <c r="O2" t="n">
-        <v>55503.28851749533</v>
+        <v>11607.72427391814</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28274.11929785951</v>
+        <v>9004.007062543757</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>26188.96215853551</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>649245.8538570831</v>
+        <v>139750.6423037671</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>587398.7410758103</v>
+        <v>167681.5062414853</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>613430.4070187462</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>409980.0902220291</v>
+        <v>66005.4619483283</v>
       </c>
       <c r="N2" t="n">
-        <v>102678.723896912</v>
+        <v>43781.27610165381</v>
       </c>
       <c r="O2" t="n">
-        <v>169735.7057243077</v>
+        <v>52207.37179957087</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>243.8709858932979</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58614.36683818755</v>
+        <v>35564.54260491626</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19314.39570212337</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>

--- a/results/[9_cold_winters]_#_inv_cost.xlsx
+++ b/results/[9_cold_winters]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2900.628494008129</v>
+        <v>2406.633596400077</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>290490.7128553893</v>
+        <v>290934.8942174729</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661196</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>149420.986357725</v>
+        <v>148652.5872276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>509988.6069102</v>
+        <v>509125.9821312752</v>
       </c>
       <c r="M2" t="n">
-        <v>112287.0813999</v>
+        <v>112470.9127927</v>
       </c>
       <c r="N2" t="n">
-        <v>71616.34392528806</v>
+        <v>72239.98700165171</v>
       </c>
       <c r="O2" t="n">
-        <v>66869.92067293868</v>
+        <v>68708.80120585459</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2297.730639432591</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35125.66274683856</v>
+        <v>53116.21837418353</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>164480.3067901611</v>
+        <v>269898.1793720496</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162514.5034018797</v>
+        <v>222508.8162963558</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>92628.68888285091</v>
+        <v>224190.3804794976</v>
       </c>
       <c r="M2" t="n">
-        <v>61433.01601085002</v>
+        <v>105604.6794510125</v>
       </c>
       <c r="N2" t="n">
-        <v>19245.54644840866</v>
+        <v>35083.91479049736</v>
       </c>
       <c r="O2" t="n">
-        <v>11607.72427391814</v>
+        <v>25042.43351431981</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9004.007062543757</v>
+        <v>12018.77283394627</v>
       </c>
       <c r="B2" t="n">
-        <v>26188.96215853551</v>
+        <v>20007.88192133839</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>139750.6423037671</v>
+        <v>138810.1661255918</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>167681.5062414853</v>
+        <v>161325.8753704437</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>66005.4619483283</v>
+        <v>64556.96661513005</v>
       </c>
       <c r="N2" t="n">
-        <v>43781.27610165381</v>
+        <v>45628.2541226642</v>
       </c>
       <c r="O2" t="n">
-        <v>52207.37179957087</v>
+        <v>58504.81512360305</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>243.8709858932979</v>
+        <v>264.8241227336373</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35564.54260491626</v>
+        <v>41492.41011352674</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>

--- a/results/[9_cold_winters]_#_inv_cost.xlsx
+++ b/results/[9_cold_winters]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[9_cold_winters]_#_inv_cost.xlsx
+++ b/results/[9_cold_winters]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10486.30918715531</v>
+        <v>39031.81680257922</v>
       </c>
       <c r="B2" t="n">
-        <v>7912.696128415612</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>480246.882031777</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127905.571197864</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95787.21511094004</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>199860.7402548</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>183081.44584818</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61946.99311416</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58838.56616931506</v>
+        <v>25179.99670441276</v>
       </c>
       <c r="O2" t="n">
-        <v>35941.73324386463</v>
+        <v>19940.13531829328</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46428.50258840945</v>
+        <v>39634.68764635387</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1451329.839550284</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>286082.9770908462</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>68781.6055373494</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48766.68152149498</v>
       </c>
       <c r="I2" t="n">
-        <v>142025.3576243174</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>767761.7551230596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>188966.859266328</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>126466.8649881523</v>
+        <v>49136.47656292135</v>
       </c>
       <c r="O2" t="n">
-        <v>55503.28851749533</v>
+        <v>37387.51309567103</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28274.11929785951</v>
+        <v>173254.1611382825</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1127198.016973329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>649245.8538570831</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>22280.32782456037</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41828.18095705618</v>
       </c>
       <c r="I2" t="n">
-        <v>587398.7410758103</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>613430.4070187462</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>409980.0902220291</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>102678.723896912</v>
+        <v>59173.16758449666</v>
       </c>
       <c r="O2" t="n">
-        <v>169735.7057243077</v>
+        <v>39123.60766563206</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>18058.88353562016</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58614.36683818755</v>
+        <v>93139.76206357942</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19314.39570212337</v>
+        <v>6208.069869270783</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[9_cold_winters]_#_inv_cost.xlsx
+++ b/results/[9_cold_winters]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>39063.99109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>5438.409379980163</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>483537.6274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13868.5083630681</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94331.34471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>7286.33314139565</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>31113.977708736</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4897.602148891324</v>
+        <v>23638.06126801545</v>
       </c>
       <c r="O2" t="n">
-        <v>7262.375938507258</v>
+        <v>19940.13531829346</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4076.683804611164</v>
+        <v>30846.52922536713</v>
       </c>
       <c r="B2" t="n">
-        <v>9077.854925484444</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1495599.874611417</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38668.68259872351</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70193.79982138964</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56602.42752520426</v>
       </c>
       <c r="I2" t="n">
-        <v>57990.58492007876</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8321.538881516826</v>
+        <v>51649.16401227913</v>
       </c>
       <c r="O2" t="n">
-        <v>7021.211903140116</v>
+        <v>42574.77934331147</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5310.359013814369</v>
+        <v>242452.4252219552</v>
       </c>
       <c r="B2" t="n">
-        <v>14058.13149740678</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>943335.270081223</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58157.14951550964</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1425.925979620855</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39373.98526588717</v>
       </c>
       <c r="I2" t="n">
-        <v>85997.51828916262</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15130.30412399452</v>
+        <v>53308.16490721726</v>
       </c>
       <c r="O2" t="n">
-        <v>11504.71832746226</v>
+        <v>30023.09380555204</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11578.49752443177</v>
       </c>
       <c r="O2" t="n">
-        <v>741.276702963037</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2327.934439300461</v>
+        <v>76705.58894163162</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1930.947398408091</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28147.3462746636</v>
       </c>
       <c r="O2" t="n">
-        <v>612.1420905210745</v>
+        <v>8312.661449003012</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[9_cold_winters]_#_inv_cost.xlsx
+++ b/results/[9_cold_winters]_#_inv_cost.xlsx
@@ -559,7 +559,7 @@
         <v>25179.99670441276</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829328</v>
+        <v>19940.13531829329</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>49136.47656292135</v>
+        <v>49136.47656292126</v>
       </c>
       <c r="O2" t="n">
         <v>37387.51309567103</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705618</v>
+        <v>41828.18095704575</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>59173.16758449666</v>
+        <v>59173.1675844967</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563206</v>
+        <v>39123.6076656417</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18058.88353562016</v>
+        <v>18058.88353562019</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93139.76206357942</v>
+        <v>93139.76206357937</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6208.069869270783</v>
+        <v>6208.069869270822</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>

--- a/results/[9_cold_winters]_#_inv_cost.xlsx
+++ b/results/[9_cold_winters]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2406.633596400077</v>
+        <v>2406.63359640005</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>290934.8942174729</v>
+        <v>290934.894217473</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712661767</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>112470.9127927</v>
       </c>
       <c r="N2" t="n">
-        <v>72239.98700165171</v>
+        <v>72239.98700165193</v>
       </c>
       <c r="O2" t="n">
-        <v>68708.80120585459</v>
+        <v>68708.8012058546</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53116.21837418353</v>
+        <v>53116.21837418356</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>269898.1793720496</v>
+        <v>269898.1793720497</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>224190.3804794976</v>
+        <v>224190.3804794975</v>
       </c>
       <c r="M2" t="n">
         <v>105604.6794510125</v>
       </c>
       <c r="N2" t="n">
-        <v>35083.91479049736</v>
+        <v>35083.91479049731</v>
       </c>
       <c r="O2" t="n">
-        <v>25042.43351431981</v>
+        <v>25042.43351431982</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12018.77283394627</v>
+        <v>12018.77283394629</v>
       </c>
       <c r="B2" t="n">
-        <v>20007.88192133839</v>
+        <v>20007.8819213383</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>138810.1661255918</v>
+        <v>138810.1661255916</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161325.8753704437</v>
+        <v>161325.8753704376</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>64556.96661513005</v>
       </c>
       <c r="N2" t="n">
-        <v>45628.2541226642</v>
+        <v>45628.25412266426</v>
       </c>
       <c r="O2" t="n">
-        <v>58504.81512360305</v>
+        <v>58504.81512360786</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>264.8241227336373</v>
+        <v>264.8241227336152</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41492.41011352674</v>
+        <v>41492.41011352678</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>

--- a/results/[9_cold_winters]_#_inv_cost.xlsx
+++ b/results/[9_cold_winters]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
